--- a/docs/planificacion.xlsx
+++ b/docs/planificacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\edgar-ramxs\RecSysUnab\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B3107C-672C-4AA7-8846-D2829656153A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0BE512-2B92-42E0-86B6-8CCB5D7C41D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Actividades </t>
   </si>
@@ -57,41 +57,70 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>Semanas</t>
-  </si>
-  <si>
     <t>Revision Bibliografica</t>
   </si>
   <si>
-    <t>Revision Bibliografia (Trabajos Relacionados)</t>
-  </si>
-  <si>
     <t>Comprension del problema</t>
   </si>
   <si>
     <t>Planteamiento de los objetivos</t>
   </si>
   <si>
-    <t>Redaccion de Criterios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enfoque </t>
+    <t>Revision de trabajos relacionados</t>
+  </si>
+  <si>
+    <t>Redaccion de criterios</t>
+  </si>
+  <si>
+    <t>Enfoque de modelado de recomendadores</t>
+  </si>
+  <si>
+    <t>Experimentos</t>
+  </si>
+  <si>
+    <t>Analisis de resultados</t>
+  </si>
+  <si>
+    <t>Conclusiones</t>
+  </si>
+  <si>
+    <t>Redaccion de la tesis</t>
+  </si>
+  <si>
+    <t>Planificación</t>
+  </si>
+  <si>
+    <t>Modularización</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.59999389629810485"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +139,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -134,15 +199,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -151,6 +311,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66CCFF"/>
+      <color rgb="FF33CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -163,9 +329,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Madison">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Madison">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -173,48 +339,48 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F2D29"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="C5FAEB"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A1D68B"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="5EC795"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="4DADCF"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="CDB756"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="E29C36"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="8EC0C1"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="6D9D9B"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="6D8583"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Madison">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Arial" panose="020B0604020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -240,16 +406,16 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Arial" panose="020B0604020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -275,7 +441,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Madison">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -284,23 +450,18 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="48000"/>
+                <a:alpha val="88000"/>
+                <a:satMod val="105000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
+                <a:tint val="78000"/>
+                <a:alpha val="92000"/>
                 <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -310,23 +471,23 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="104000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="69000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="84000"/>
+                <a:satMod val="130000"/>
+                <a:lumMod val="92000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="76000"/>
+                <a:satMod val="130000"/>
+                <a:lumMod val="88000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -334,26 +495,23 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="22225" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -364,13 +522,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -378,38 +530,12 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch/>
+        </a:blipFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -417,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Madison" id="{025CB5FB-2DD3-45EE-B6F0-CC461540EB19}" vid="{6AC10936-2DFC-4054-9ADF-B5E2C5F86190}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -425,222 +551,684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AK9"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43" customWidth="1"/>
-    <col min="2" max="37" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="39.375" customWidth="1"/>
+    <col min="2" max="37" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3" t="s">
+      <c r="U2" s="4"/>
+      <c r="V2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3" t="s">
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3" t="s">
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3" t="s">
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="AK2" s="4"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5">
+        <v>4</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>2</v>
+      </c>
+      <c r="L3" s="5">
+        <v>3</v>
+      </c>
+      <c r="M3" s="5">
+        <v>4</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>4</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5">
+        <v>2</v>
+      </c>
+      <c r="T3" s="5">
+        <v>3</v>
+      </c>
+      <c r="U3" s="5">
+        <v>4</v>
+      </c>
+      <c r="V3" s="5">
+        <v>1</v>
+      </c>
+      <c r="W3" s="5">
+        <v>2</v>
+      </c>
+      <c r="X3" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>4</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2</v>
-      </c>
-      <c r="L3" s="1">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1">
-        <v>4</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>4</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>2</v>
-      </c>
-      <c r="T3" s="1">
-        <v>3</v>
-      </c>
-      <c r="U3" s="1">
-        <v>4</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1</v>
-      </c>
-      <c r="W3" s="1">
-        <v>2</v>
-      </c>
-      <c r="X3" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>4</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK3" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="AD2:AG2"/>
     <mergeCell ref="AH2:AK2"/>
